--- a/data/gas_expenditures.xlsx
+++ b/data/gas_expenditures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keilagonzalez/Documents/Learning/Udacity/Lesson_1/HouseholdBudgetSurvey_/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96386733-AAF0-5B49-A60A-DBC18324FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA59DA-B71E-1F42-AA77-3F7A778DF42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" activeTab="4" xr2:uid="{A5978C66-6114-9B49-B523-8BB86D671383}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" activeTab="5" xr2:uid="{A5978C66-6114-9B49-B523-8BB86D671383}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="2" r:id="rId1"/>
@@ -2414,7 +2414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2448,6 +2448,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2466,10 +2474,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2477,8 +2486,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7292,7 +7303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6079D6C4-BA3C-6544-82F6-123AC468EB44}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -8503,8 +8514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F472F64D-0EE7-564C-88F2-DB2AC4D1C03E}">
   <dimension ref="E8:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8515,11 +8526,14 @@
       </c>
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>788</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{EADA2FBC-BF83-6146-9A2A-EF7AB2B35CB4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>